--- a/Plancheck/check_protocol/STEC foie RA.xlsx
+++ b/Plancheck/check_protocol/STEC foie RA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1525,7 +1525,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2332,8 +2332,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G28"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,7 +2660,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2802,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,8 +2906,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
